--- a/bh3/549763939975358771_2021-07-21_12-04-52.xlsx
+++ b/bh3/549763939975358771_2021-07-21_12-04-52.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5007527132</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-28 01:06:25</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44405.04612268518</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -611,10 +625,8 @@
           <t>4980665446</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-24 16:08:34</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44401.67261574074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -674,10 +686,8 @@
           <t>4980652670</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-24 16:07:07</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44401.6716087963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -737,10 +747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:19:51</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44399.93045138889</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -808,10 +816,8 @@
           <t>4965476701</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:41:42</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44399.90395833334</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -877,10 +883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-22 17:04:25</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44399.71140046296</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -944,10 +948,8 @@
           <t>4965476701</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-22 16:00:37</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44399.66709490741</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1015,10 +1017,8 @@
           <t>4965476701</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-22 15:21:41</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44399.64005787037</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1090,10 +1090,8 @@
           <t>4965476701</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:38:12</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44399.60986111111</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1158,10 +1156,8 @@
           <t>4958043359</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:37:33</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44399.02607638889</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1229,10 +1225,8 @@
           <t>4961840693</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:07:04</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44398.96324074074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1304,10 +1298,8 @@
           <t>4961832732</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:06:11</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44398.96262731482</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1379,10 +1371,8 @@
           <t>4961817940</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:04:28</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44398.96143518519</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1454,10 +1444,8 @@
           <t>4961817262</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:04:12</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44398.96125</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1529,10 +1517,8 @@
           <t>4961811533</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:03:48</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44398.96097222222</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1604,10 +1590,8 @@
           <t>4961820374</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:03:32</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44398.96078703704</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1679,10 +1663,8 @@
           <t>4961799944</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:03:21</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44398.96065972222</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1754,10 +1736,8 @@
           <t>4961799518</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:03:10</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44398.96053240741</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1829,10 +1809,8 @@
           <t>4961799190</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:03:02</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44398.96043981481</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1904,10 +1882,8 @@
           <t>4961808388</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:02:45</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44398.96024305555</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1983,10 +1959,8 @@
           <t>4961807388</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:02:22</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44398.95997685185</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2058,10 +2032,8 @@
           <t>4961795502</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:01:29</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44398.95936342593</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2133,10 +2105,8 @@
           <t>4961795246</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:01:23</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44398.95929398148</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2208,10 +2178,8 @@
           <t>4961790206</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:59:44</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44398.95814814815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2283,10 +2251,8 @@
           <t>4961779726</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:59:33</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44398.95802083334</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2358,10 +2324,8 @@
           <t>4959597048</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:05:31</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44398.92049768518</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2425,10 +2389,8 @@
           <t>4960858776</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:00:53</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44398.87561342592</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2488,10 +2450,8 @@
           <t>4960833968</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:57:10</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44398.87303240741</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2551,10 +2511,8 @@
           <t>4960220786</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:31:19</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44398.81341435185</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2630,10 +2588,8 @@
           <t>4959928244</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:52:25</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44398.78640046297</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2697,10 +2653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:40:04</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44398.77782407407</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2764,10 +2718,8 @@
           <t>4959788812</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:33:35</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44398.77332175926</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2839,10 +2791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:33:09</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44398.77302083333</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2914,10 +2864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:32:01</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44398.7722337963</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2993,10 +2941,8 @@
           <t>4958976388</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:31:27</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44398.77184027778</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3072,10 +3018,8 @@
           <t>4958976388</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:30:32</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44398.77120370371</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3143,10 +3087,8 @@
           <t>4958779852</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:20:18</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44398.76409722222</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3210,10 +3152,8 @@
           <t>4959681197</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:19:12</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44398.76333333334</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3292,10 +3232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:18:36</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44398.76291666667</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3359,10 +3297,8 @@
           <t>4959653042</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:16:01</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44398.76112268519</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3440,10 +3376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:08:15</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44398.75572916667</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3519,10 +3453,8 @@
           <t>4959597048</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:07:44</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44398.75537037037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3582,10 +3514,8 @@
           <t>4958535208</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:57:52</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44398.74851851852</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3660,10 +3590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:46:06</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44398.74034722222</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
@@ -3727,10 +3655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:40:09</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44398.73621527778</v>
       </c>
       <c r="I46" t="n">
         <v>8</v>
@@ -3798,10 +3724,8 @@
           <t>4959044024</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:38:00</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44398.73472222222</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3877,10 +3801,8 @@
           <t>4959044024</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:22:05</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44398.72366898148</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3956,10 +3878,8 @@
           <t>4958976388</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:20:21</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44398.72246527778</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4035,10 +3955,8 @@
           <t>4957943022</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:13:53</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44398.71797453704</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4114,10 +4032,8 @@
           <t>4959123614</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:57:19</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44398.70646990741</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4185,10 +4101,8 @@
           <t>4959044024</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:51:29</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44398.70241898148</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4252,10 +4166,8 @@
           <t>4958535208</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:46:13</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44398.69876157407</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4331,10 +4243,8 @@
           <t>4959049688</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:45:50</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44398.69849537037</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4398,10 +4308,8 @@
           <t>4959044024</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:44:51</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44398.6978125</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4465,10 +4373,8 @@
           <t>4959042906</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:44:18</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44398.69743055556</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4536,10 +4442,8 @@
           <t>4959041798</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:43:45</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44398.69704861111</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4603,10 +4507,8 @@
           <t>4958976388</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:31:22</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44398.68844907408</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4682,10 +4584,8 @@
           <t>4958966001</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:30:31</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44398.68785879629</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4754,10 +4654,8 @@
           <t>4958959869</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:30:14</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44398.68766203704</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4833,10 +4731,8 @@
           <t>4958963140</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:29:43</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44398.68730324074</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4908,10 +4804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:25:33</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44398.68440972222</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4987,10 +4881,8 @@
           <t>4958779852</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:24:25</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44398.68362268519</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5062,10 +4954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:20:50</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44398.68113425926</v>
       </c>
       <c r="I64" t="n">
         <v>5</v>
@@ -5135,10 +5025,8 @@
           <t>4958779852</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:20:40</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44398.68101851852</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -5208,10 +5096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:17:30</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44398.67881944445</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5283,10 +5169,8 @@
           <t>4958838204</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:09:03</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44398.67295138889</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5358,10 +5242,8 @@
           <t>4958726969</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:06:29</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44398.67116898148</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5441,10 +5323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:02:52</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44398.6686574074</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5512,10 +5392,8 @@
           <t>4958779852</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:59:07</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44398.66605324074</v>
       </c>
       <c r="I70" t="n">
         <v>4</v>
@@ -5587,10 +5465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:53:45</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44398.66232638889</v>
       </c>
       <c r="I71" t="n">
         <v>11</v>
@@ -5654,10 +5530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:50:02</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44398.65974537037</v>
       </c>
       <c r="I72" t="n">
         <v>4</v>
@@ -5721,10 +5595,8 @@
           <t>4958726969</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:47:07</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44398.65771990741</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5792,10 +5664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:44:00</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44398.65555555555</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5875,10 +5745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:34:22</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44398.64886574074</v>
       </c>
       <c r="I75" t="n">
         <v>14</v>
@@ -5946,10 +5814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:34:18</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44398.64881944445</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
@@ -6024,10 +5890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:14:12</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44398.63486111111</v>
       </c>
       <c r="I77" t="n">
         <v>9</v>
@@ -6095,10 +5959,8 @@
           <t>4958535208</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:10:22</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44398.63219907408</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6166,10 +6028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:55:16</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44398.62171296297</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6237,10 +6097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:47:48</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44398.61652777778</v>
       </c>
       <c r="I80" t="n">
         <v>6</v>
@@ -6316,10 +6174,8 @@
           <t>4958372637</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:40:57</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44398.61177083333</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6385,10 +6241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:40:11</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44398.61123842592</v>
       </c>
       <c r="I82" t="n">
         <v>114</v>
@@ -6460,10 +6314,8 @@
           <t>4958357866</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:38:17</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44398.60991898148</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -6542,10 +6394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:20:59</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44398.5979050926</v>
       </c>
       <c r="I84" t="n">
         <v>17</v>
@@ -6613,10 +6463,8 @@
           <t>4957943022</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:16:05</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44398.59450231482</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6684,10 +6532,8 @@
           <t>4958240686</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:14:30</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44398.59340277778</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6763,10 +6609,8 @@
           <t>4957943022</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:13:34</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44398.59275462963</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6842,10 +6686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:11:56</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44398.59162037037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6917,10 +6759,8 @@
           <t>4957943022</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:11:56</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44398.59162037037</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6988,10 +6828,8 @@
           <t>4957943022</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:10:51</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44398.59086805556</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7067,10 +6905,8 @@
           <t>4957943022</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:08:35</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44398.58929398148</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7138,10 +6974,8 @@
           <t>4957943022</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:08:00</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44398.58888888889</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7217,10 +7051,8 @@
           <t>4958137392</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:06:49</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44398.58806712963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7292,10 +7124,8 @@
           <t>4958137392</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:56:20</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44398.58078703703</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7368,10 +7198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:50:41</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44398.57686342593</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -7435,10 +7263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:49:31</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44398.57605324074</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7502,10 +7328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:46:51</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44398.57420138889</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -7569,10 +7393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:46:37</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44398.57403935185</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7636,10 +7458,8 @@
           <t>4958081182</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:45:50</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44398.57349537037</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7711,10 +7531,8 @@
           <t>4958043359</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:40:45</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44398.56996527778</v>
       </c>
       <c r="I100" t="n">
         <v>5</v>
@@ -7791,10 +7609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:40:27</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44398.56975694445</v>
       </c>
       <c r="I101" t="n">
         <v>13</v>
@@ -7870,10 +7686,8 @@
           <t>4957915510</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:34:59</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44398.56596064815</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7941,10 +7755,8 @@
           <t>4958008704</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:33:37</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44398.56501157407</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -8013,10 +7825,8 @@
           <t>4957996612</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:32:23</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44398.56415509259</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8087,10 +7897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:31:52</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44398.56379629629</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8158,10 +7966,8 @@
           <t>4957994930</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:31:33</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44398.56357638889</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8234,10 +8040,8 @@
           <t>4957989280</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:31:12</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44398.56333333333</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8307,10 +8111,8 @@
           <t>4957983543</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:30:54</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44398.563125</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8378,10 +8180,8 @@
           <t>4957928286</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:30:50</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44398.5630787037</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8451,10 +8251,8 @@
           <t>4957911341</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:30:38</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44398.56293981482</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8524,10 +8322,8 @@
           <t>4957806832</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:30:13</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44398.56265046296</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8597,10 +8393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:29:30</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44398.56215277778</v>
       </c>
       <c r="I112" t="n">
         <v>6</v>
@@ -8664,10 +8458,8 @@
           <t>4957978122</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:28:15</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44398.56128472222</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -8731,10 +8523,8 @@
           <t>4957972636</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:27:54</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44398.56104166667</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -8810,10 +8600,8 @@
           <t>4957976596</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:27:29</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44398.56075231481</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8881,10 +8669,8 @@
           <t>4957963225</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:25:52</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44398.55962962963</v>
       </c>
       <c r="I116" t="n">
         <v>4</v>
@@ -8948,10 +8734,8 @@
           <t>4957952276</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:24:59</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44398.5590162037</v>
       </c>
       <c r="I117" t="n">
         <v>4</v>
@@ -9027,10 +8811,8 @@
           <t>4957951490</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:24:36</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44398.55875</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9098,10 +8880,8 @@
           <t>4957943022</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:23:16</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44398.55782407407</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9169,10 +8949,8 @@
           <t>4957938379</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:23:01</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44398.55765046296</v>
       </c>
       <c r="I120" t="n">
         <v>17</v>
@@ -9248,10 +9026,8 @@
           <t>4957721017</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:21:55</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44398.55688657407</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9319,10 +9095,8 @@
           <t>4957721017</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:21:44</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44398.55675925926</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9390,10 +9164,8 @@
           <t>4957928286</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:20:58</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44398.55622685186</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9461,10 +9233,8 @@
           <t>4957911983</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:20:54</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44398.55618055556</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9540,10 +9310,8 @@
           <t>4957931990</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:20:32</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44398.55592592592</v>
       </c>
       <c r="I125" t="n">
         <v>4</v>
@@ -9611,10 +9379,8 @@
           <t>4957779120</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:20:00</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44398.55555555555</v>
       </c>
       <c r="I126" t="n">
         <v>5</v>
@@ -9682,10 +9448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:19:59</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44398.55554398148</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9761,10 +9525,8 @@
           <t>4957912361</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:18:08</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44398.55425925926</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9840,10 +9602,8 @@
           <t>4957911983</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:17:57</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44398.55413194445</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9911,10 +9671,8 @@
           <t>4957911341</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:17:38</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44398.55391203704</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9978,10 +9736,8 @@
           <t>4957721017</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:17:36</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44398.55388888889</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10051,10 +9807,8 @@
           <t>4957915510</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:17:26</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44398.55377314815</v>
       </c>
       <c r="I132" t="n">
         <v>7</v>
@@ -10122,10 +9876,8 @@
           <t>4957860085</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:16:49</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44398.55334490741</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10193,10 +9945,8 @@
           <t>4957906185</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:16:47</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44398.55332175926</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10268,10 +10018,8 @@
           <t>4957904111</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:16:45</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44398.55329861111</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10335,10 +10083,8 @@
           <t>4957905957</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:16:41</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44398.55325231481</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10402,10 +10148,8 @@
           <t>4957905458</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:16:27</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44398.55309027778</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10477,10 +10221,8 @@
           <t>4957894758</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:16:05</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44398.55283564814</v>
       </c>
       <c r="I138" t="n">
         <v>2</v>
@@ -10552,10 +10294,8 @@
           <t>4957902407</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:15:58</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44398.55275462963</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10631,10 +10371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:14:44</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44398.55189814815</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
@@ -10708,10 +10446,8 @@
           <t>4957884530</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:14:25</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44398.55167824074</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10779,10 +10515,8 @@
           <t>4957879543</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:13:28</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44398.55101851852</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10850,10 +10584,8 @@
           <t>4957806832</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:13:26</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44398.55099537037</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10917,10 +10649,8 @@
           <t>4957880356</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:12:26</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44398.55030092593</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -10992,10 +10722,8 @@
           <t>4957864941</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:11:12</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44398.54944444444</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -11071,10 +10799,8 @@
           <t>4957805819</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:11:00</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44398.54930555556</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11150,10 +10876,8 @@
           <t>4957867153</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:10:58</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44398.54928240741</v>
       </c>
       <c r="I147" t="n">
         <v>5</v>
@@ -11229,10 +10953,8 @@
           <t>4957866927</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:10:52</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44398.54921296296</v>
       </c>
       <c r="I148" t="n">
         <v>2</v>
@@ -11296,10 +11018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:09:30</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44398.54826388889</v>
       </c>
       <c r="I149" t="n">
         <v>18</v>
@@ -11379,10 +11099,8 @@
           <t>4957860085</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:08:51</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44398.5478125</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11458,10 +11176,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:07:59</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44398.54721064815</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11537,10 +11253,8 @@
           <t>4957846353</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:07:00</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44398.54652777778</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11612,10 +11326,8 @@
           <t>4957721017</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:06:05</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44398.54589120371</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11691,10 +11403,8 @@
           <t>4957805819</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:06:01</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44398.54584490741</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11762,10 +11472,8 @@
           <t>4957829162</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:05:29</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44398.54547453704</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11870,10 +11578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:05:25</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44398.54542824074</v>
       </c>
       <c r="I156" t="n">
         <v>12</v>
@@ -11937,10 +11643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:05:12</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44398.54527777778</v>
       </c>
       <c r="I157" t="n">
         <v>7</v>
@@ -12008,10 +11712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:04:55</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44398.54508101852</v>
       </c>
       <c r="I158" t="n">
         <v>7</v>
@@ -12093,10 +11795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:04:43</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44398.54494212963</v>
       </c>
       <c r="I159" t="n">
         <v>6</v>
@@ -12160,10 +11860,8 @@
           <t>4957675526</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:04:02</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44398.54446759259</v>
       </c>
       <c r="I160" t="n">
         <v>2</v>
@@ -12227,10 +11925,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:02:48</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44398.54361111111</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -12306,10 +12002,8 @@
           <t>4957817086</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:02:34</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44398.54344907407</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12377,10 +12071,8 @@
           <t>4957805819</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:02:25</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44398.5433449074</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12456,10 +12148,8 @@
           <t>4957806832</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:01:41</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44398.54283564815</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12531,10 +12221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:01:27</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44398.54267361111</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12610,10 +12298,8 @@
           <t>4957805819</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:01:14</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44398.54252314815</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12681,10 +12367,8 @@
           <t>4957779120</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:00:46</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44398.54219907407</v>
       </c>
       <c r="I167" t="n">
         <v>5</v>
@@ -12756,10 +12440,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:00:39</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44398.54211805556</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12827,10 +12509,8 @@
           <t>4957779120</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:00:00</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44398.54166666666</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -12898,10 +12578,8 @@
           <t>4957801512</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:59:55</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44398.54160879629</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12978,10 +12656,8 @@
           <t>4957792113</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:59:37</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44398.54140046296</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -13045,10 +12721,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:58:51</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44398.54086805556</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13117,10 +12791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:58:37</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44398.54070601852</v>
       </c>
       <c r="I173" t="n">
         <v>8</v>
@@ -13188,10 +12860,8 @@
           <t>4957779120</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:58:17</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44398.54047453704</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13259,10 +12929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:58:00</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44398.54027777778</v>
       </c>
       <c r="I175" t="n">
         <v>4</v>
@@ -13338,10 +13006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:57:30</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44398.53993055555</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13413,10 +13079,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:57:24</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44398.53986111111</v>
       </c>
       <c r="I177" t="n">
         <v>3</v>
@@ -13480,10 +13144,8 @@
           <t>4957711583</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:57:00</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44398.53958333333</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13551,10 +13213,8 @@
           <t>4957711583</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:56:27</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44398.53920138889</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13618,10 +13278,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:55:45</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44398.53871527778</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13685,10 +13343,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:55:38</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44398.53863425926</v>
       </c>
       <c r="I181" t="n">
         <v>2</v>
@@ -13752,10 +13408,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:54:56</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44398.53814814815</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13823,10 +13477,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:51:53</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44398.53603009259</v>
       </c>
       <c r="I183" t="n">
         <v>3</v>
@@ -13890,10 +13542,8 @@
           <t>4957711583</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:51:52</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44398.53601851852</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13961,10 +13611,8 @@
           <t>4957732370</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:51:00</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44398.53541666667</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14036,10 +13684,8 @@
           <t>4957731481</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:50:36</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44398.53513888889</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14107,10 +13753,8 @@
           <t>4957719917</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:49:53</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44398.5346412037</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14179,10 +13823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:49:12</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44398.53416666666</v>
       </c>
       <c r="I188" t="n">
         <v>10</v>
@@ -14252,10 +13894,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:49:04</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44398.53407407407</v>
       </c>
       <c r="I189" t="n">
         <v>5</v>
@@ -14319,10 +13959,8 @@
           <t>4957725975</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:48:59</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44398.5340162037</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14390,10 +14028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:48:26</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44398.53363425926</v>
       </c>
       <c r="I191" t="n">
         <v>105</v>
@@ -14457,10 +14093,8 @@
           <t>4957721017</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:48:17</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44398.53353009259</v>
       </c>
       <c r="I192" t="n">
         <v>9</v>
@@ -14528,10 +14162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:47:32</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44398.53300925926</v>
       </c>
       <c r="I193" t="n">
         <v>6</v>
@@ -14607,10 +14239,8 @@
           <t>4957708426</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:47:12</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44398.53277777778</v>
       </c>
       <c r="I194" t="n">
         <v>5</v>
@@ -14682,10 +14312,8 @@
           <t>4957711583</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:47:11</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44398.5327662037</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14749,10 +14377,8 @@
           <t>4957699794</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:46:28</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44398.53226851852</v>
       </c>
       <c r="I196" t="n">
         <v>2</v>
@@ -14828,10 +14454,8 @@
           <t>4957687215</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:46:28</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44398.53226851852</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14899,10 +14523,8 @@
           <t>4957687215</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:46:27</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44398.53225694445</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14970,10 +14592,8 @@
           <t>4957702109</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:46:19</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44398.53216435185</v>
       </c>
       <c r="I199" t="n">
         <v>2</v>
@@ -15049,10 +14669,8 @@
           <t>4957699209</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:46:13</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44398.53209490741</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15120,10 +14738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:45:53</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44398.53186342592</v>
       </c>
       <c r="I201" t="n">
         <v>10</v>
@@ -15187,10 +14803,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:45:24</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44398.53152777778</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15258,10 +14872,8 @@
           <t>4957611921</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:44:46</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44398.53108796296</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15329,10 +14941,8 @@
           <t>4957695058</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:44:28</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44398.53087962963</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15396,10 +15006,8 @@
           <t>4957687215</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:44:06</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44398.530625</v>
       </c>
       <c r="I205" t="n">
         <v>6</v>
@@ -15467,10 +15075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:44:04</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44398.53060185185</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15546,10 +15152,8 @@
           <t>4957686317</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:43:40</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44398.53032407408</v>
       </c>
       <c r="I207" t="n">
         <v>6</v>
@@ -15613,10 +15217,8 @@
           <t>4957686201</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:43:37</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44398.53028935185</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15681,10 +15283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:42:19</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44398.52938657408</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -15761,10 +15361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:42:04</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44398.52921296296</v>
       </c>
       <c r="I210" t="n">
         <v>11</v>
@@ -15832,10 +15430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:41:57</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44398.52913194444</v>
       </c>
       <c r="I211" t="n">
         <v>7</v>
@@ -15903,10 +15499,8 @@
           <t>4957675526</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:41:41</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44398.52894675926</v>
       </c>
       <c r="I212" t="n">
         <v>24</v>
@@ -15974,10 +15568,8 @@
           <t>4957667940</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:41:27</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44398.52878472222</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16049,10 +15641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:38:46</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44398.5269212963</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16128,10 +15718,8 @@
           <t>4957484688</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:38:10</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44398.52650462963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16203,10 +15791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:38:03</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44398.52642361111</v>
       </c>
       <c r="I216" t="n">
         <v>19</v>
@@ -16278,10 +15864,8 @@
           <t>4957646627</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:37:55</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44398.52633101852</v>
       </c>
       <c r="I217" t="n">
         <v>15</v>
@@ -16353,10 +15937,8 @@
           <t>4957645596</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:37:28</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44398.52601851852</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16428,10 +16010,8 @@
           <t>4957633760</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:36:40</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44398.52546296296</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16503,10 +16083,8 @@
           <t>4957611921</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:32:38</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44398.52266203704</v>
       </c>
       <c r="I220" t="n">
         <v>9</v>
@@ -16570,10 +16148,8 @@
           <t>4957492271</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:32:26</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44398.52252314815</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16649,10 +16225,8 @@
           <t>4957593678</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:31:01</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44398.52153935185</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16725,10 +16299,8 @@
           <t>4957584668</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:29:36</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44398.52055555556</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16796,10 +16368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:28:53</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44398.52005787037</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -16863,10 +16433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:28:48</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44398.52</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -16934,10 +16502,8 @@
           <t>4957573252</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:27:53</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44398.51936342593</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17013,10 +16579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:26:50</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44398.51863425926</v>
       </c>
       <c r="I227" t="n">
         <v>3</v>
@@ -17084,10 +16648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:26:01</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44398.51806712963</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -17156,10 +16718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:25:49</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44398.51792824074</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17226,10 +16786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:25:39</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44398.5178125</v>
       </c>
       <c r="I230" t="n">
         <v>3</v>
@@ -17293,10 +16851,8 @@
           <t>4957515969</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:25:31</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44398.51771990741</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17360,10 +16916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:25:30</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44398.51770833333</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17427,10 +16981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:25:24</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44398.51763888889</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17501,10 +17053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:25:18</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44398.51756944445</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17568,10 +17118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:24:16</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44398.51685185185</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17647,10 +17195,8 @@
           <t>4957550522</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:23:42</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44398.51645833333</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17726,10 +17272,8 @@
           <t>4957546958</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:23:22</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44398.51622685185</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17801,10 +17345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:22:49</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44398.51584490741</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
@@ -17872,10 +17414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:22:25</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44398.51556712963</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17951,10 +17491,8 @@
           <t>4957527116</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:20:56</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44398.51453703704</v>
       </c>
       <c r="I240" t="n">
         <v>7</v>
@@ -18026,10 +17564,8 @@
           <t>4957515969</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:20:52</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44398.51449074074</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18105,10 +17641,8 @@
           <t>4957492271</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:20:14</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44398.51405092593</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18168,10 +17702,8 @@
           <t>4957513595</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:19:24</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44398.51347222222</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18247,10 +17779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:19:16</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44398.51337962963</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18326,10 +17856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:18:50</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44398.51307870371</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18393,10 +17921,8 @@
           <t>4957515969</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:18:45</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44398.51302083334</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18468,10 +17994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:18:23</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44398.5127662037</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18535,10 +18059,8 @@
           <t>4957515969</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:18:18</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44398.51270833334</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18614,10 +18136,8 @@
           <t>4957515178</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:17:57</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44398.51246527778</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18685,10 +18205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:17:55</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44398.51244212963</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18752,10 +18270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:17:50</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44398.51238425926</v>
       </c>
       <c r="I251" t="n">
         <v>57</v>
@@ -18819,10 +18335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:16:07</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44398.51119212963</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18899,10 +18413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:16:07</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44398.51119212963</v>
       </c>
       <c r="I253" t="n">
         <v>18</v>
@@ -18974,10 +18486,8 @@
           <t>4957492271</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:15:53</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44398.5110300926</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19045,10 +18555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:15:50</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44398.51099537037</v>
       </c>
       <c r="I255" t="n">
         <v>97</v>
@@ -19116,10 +18624,8 @@
           <t>4957484688</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:15:25</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44398.51070601852</v>
       </c>
       <c r="I256" t="n">
         <v>4</v>
@@ -19183,10 +18689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:15:04</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44398.51046296296</v>
       </c>
       <c r="I257" t="n">
         <v>6</v>
@@ -19262,10 +18766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:14:27</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44398.51003472223</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19341,10 +18843,8 @@
           <t>4957477567</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:13:52</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44398.50962962963</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19420,10 +18920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:13:45</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44398.50954861111</v>
       </c>
       <c r="I260" t="n">
         <v>21</v>
@@ -19491,10 +18989,8 @@
           <t>4957469804</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:13:09</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44398.50913194445</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19562,10 +19058,8 @@
           <t>4957462422</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:12:55</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44398.50896990741</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19633,10 +19127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:12:43</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44398.50883101852</v>
       </c>
       <c r="I263" t="n">
         <v>46</v>
@@ -19713,10 +19205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:11:54</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44398.50826388889</v>
       </c>
       <c r="I264" t="n">
         <v>13</v>
@@ -19784,10 +19274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:11:50</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44398.50821759259</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19855,10 +19343,8 @@
           <t>4957462422</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:11:36</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44398.50805555555</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19930,10 +19416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:11:30</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44398.50798611111</v>
       </c>
       <c r="I267" t="n">
         <v>15</v>
@@ -20005,10 +19489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:10:47</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44398.50748842592</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20072,10 +19554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:10:25</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44398.5072337963</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20147,10 +19627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:10:20</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44398.50717592592</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20214,10 +19692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:10:16</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44398.50712962963</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20293,10 +19769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:10:16</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44398.50712962963</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20373,10 +19847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:10:12</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44398.50708333333</v>
       </c>
       <c r="I273" t="n">
         <v>46</v>
@@ -20444,10 +19916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:09:58</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44398.5069212963</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20524,10 +19994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:09:49</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44398.50681712963</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20599,10 +20067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:09:28</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44398.50657407408</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20666,10 +20132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:09:08</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44398.50634259259</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20745,10 +20209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:09:02</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44398.50627314814</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20808,10 +20270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:08:30</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44398.50590277778</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20887,10 +20347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:08:25</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44398.50584490741</v>
       </c>
       <c r="I280" t="n">
         <v>883</v>
@@ -20962,10 +20420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:08:15</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44398.50572916667</v>
       </c>
       <c r="I281" t="n">
         <v>8</v>
@@ -21037,10 +20493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:08:09</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44398.50565972222</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21104,10 +20558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:07:34</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44398.50525462963</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21175,10 +20627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:07:26</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44398.50516203704</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -21246,10 +20696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:07:01</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44398.50487268518</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21317,10 +20765,8 @@
           <t>4957431349</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:06:49</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44398.5047337963</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21388,10 +20834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:06:47</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44398.50471064815</v>
       </c>
       <c r="I287" t="n">
         <v>14</v>
@@ -21467,10 +20911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:06:44</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44398.50467592593</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21539,10 +20981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:06:26</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44398.50446759259</v>
       </c>
       <c r="I289" t="n">
         <v>150</v>
@@ -21614,10 +21054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:06:16</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44398.50435185185</v>
       </c>
       <c r="I290" t="n">
         <v>12</v>
@@ -21685,10 +21123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:05:59</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44398.5041550926</v>
       </c>
       <c r="I291" t="n">
         <v>6</v>
@@ -21756,10 +21192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:05:40</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44398.50393518519</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21836,10 +21270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:05:24</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44398.50375</v>
       </c>
       <c r="I293" t="n">
         <v>474</v>
